--- a/Test data/TC03_EditProfile.xlsx
+++ b/Test data/TC03_EditProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7B223-57C8-41E3-9AE1-4F1970ACFA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73870386-70CE-4A19-92A0-D18B45ACDA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="135">
   <si>
     <t>TDID</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Day</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>Suggestion</t>
@@ -895,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -930,10 +927,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -954,22 +951,22 @@
         <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -978,41 +975,41 @@
     </row>
     <row r="2" spans="1:20" ht="15.5">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1020,43 +1017,43 @@
     </row>
     <row r="3" spans="1:20" ht="15.5">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -1064,43 +1061,43 @@
     </row>
     <row r="4" spans="1:20" ht="15.5">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -1108,43 +1105,43 @@
     </row>
     <row r="5" spans="1:20" ht="15.5">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -1152,43 +1149,43 @@
     </row>
     <row r="6" spans="1:20" ht="15.5">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1196,43 +1193,43 @@
     </row>
     <row r="7" spans="1:20" ht="15.5">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1240,43 +1237,43 @@
     </row>
     <row r="8" spans="1:20" ht="15.5">
       <c r="A8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1284,41 +1281,41 @@
     </row>
     <row r="9" spans="1:20" ht="15.5">
       <c r="A9" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1326,43 +1323,43 @@
     </row>
     <row r="10" spans="1:20" ht="15.5">
       <c r="A10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -1373,40 +1370,40 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1417,40 +1414,40 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -1461,40 +1458,40 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -1505,40 +1502,40 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -1549,38 +1546,38 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -1591,40 +1588,40 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -1635,40 +1632,40 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -1679,40 +1676,40 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -1723,40 +1720,40 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -1767,40 +1764,40 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -1811,38 +1808,38 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -1853,40 +1850,40 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -1897,40 +1894,40 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -1941,40 +1938,40 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -1985,40 +1982,40 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -2029,40 +2026,40 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -2073,40 +2070,40 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -2117,40 +2114,40 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -2161,38 +2158,38 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -2203,38 +2200,38 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J30" s="10"/>
       <c r="K30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -2245,40 +2242,40 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -2289,40 +2286,40 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -2333,40 +2330,40 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
@@ -2377,40 +2374,40 @@
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -2421,40 +2418,40 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -2465,40 +2462,40 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -2509,40 +2506,40 @@
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -2553,40 +2550,40 @@
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>129</v>
       </c>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -2599,40 +2596,40 @@
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2648,37 +2645,37 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -2691,40 +2688,40 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -2737,40 +2734,40 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -2783,40 +2780,40 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M43" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>125</v>
       </c>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>

--- a/Test data/TC03_EditProfile.xlsx
+++ b/Test data/TC03_EditProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73870386-70CE-4A19-92A0-D18B45ACDA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C0CA4C-F816-44DD-AA26-F96B2182BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="135">
   <si>
     <t>TDID</t>
   </si>
@@ -136,9 +136,6 @@
     <t>TD41</t>
   </si>
   <si>
-    <t>TD42</t>
-  </si>
-  <si>
     <t>Lastname</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>เบอร์โทรต้องมีจำนวนตัวเลข 10 ตัวเลขเท่านั้น</t>
   </si>
   <si>
-    <t>กรุณาเลือกเพศ</t>
-  </si>
-  <si>
     <t>bawonthad2612</t>
   </si>
   <si>
@@ -421,13 +415,19 @@
     <t>Password</t>
   </si>
   <si>
-    <t>26122001</t>
-  </si>
-  <si>
     <t>Expected result</t>
   </si>
   <si>
     <t>Actual result</t>
+  </si>
+  <si>
+    <t>06092011</t>
+  </si>
+  <si>
+    <t>06092010</t>
+  </si>
+  <si>
+    <t>05092012</t>
   </si>
 </sst>
 </file>
@@ -890,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -927,46 +927,46 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
@@ -975,41 +975,41 @@
     </row>
     <row r="2" spans="1:20" ht="15.5">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
@@ -1017,43 +1017,43 @@
     </row>
     <row r="3" spans="1:20" ht="15.5">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
@@ -1061,43 +1061,43 @@
     </row>
     <row r="4" spans="1:20" ht="15.5">
       <c r="A4" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -1105,43 +1105,43 @@
     </row>
     <row r="5" spans="1:20" ht="15.5">
       <c r="A5" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
@@ -1149,43 +1149,43 @@
     </row>
     <row r="6" spans="1:20" ht="15.5">
       <c r="A6" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
@@ -1193,43 +1193,43 @@
     </row>
     <row r="7" spans="1:20" ht="15.5">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
@@ -1237,43 +1237,43 @@
     </row>
     <row r="8" spans="1:20" ht="15.5">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -1281,41 +1281,41 @@
     </row>
     <row r="9" spans="1:20" ht="15.5">
       <c r="A9" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1323,43 +1323,43 @@
     </row>
     <row r="10" spans="1:20" ht="15.5">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -1373,37 +1373,37 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
@@ -1417,37 +1417,37 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
@@ -1461,37 +1461,37 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
@@ -1505,37 +1505,37 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
@@ -1549,35 +1549,35 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
@@ -1591,37 +1591,37 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
@@ -1635,37 +1635,37 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
@@ -1679,37 +1679,37 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
@@ -1723,37 +1723,37 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -1767,37 +1767,37 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -1811,35 +1811,35 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -1853,37 +1853,37 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -1897,37 +1897,37 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -1941,37 +1941,37 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -1985,37 +1985,37 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -2029,37 +2029,37 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -2073,37 +2073,37 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -2117,37 +2117,37 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -2161,35 +2161,35 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="13" t="s">
-        <v>103</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="10"/>
       <c r="K29" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -2203,35 +2203,37 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30" s="10"/>
+        <v>123</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="K30" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -2245,37 +2247,37 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>96</v>
+        <v>124</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -2289,41 +2291,41 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="8"/>
     </row>
     <row r="33" spans="1:18" ht="15.5">
       <c r="A33" s="3" t="s">
@@ -2333,40 +2335,40 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="8"/>
     </row>
     <row r="34" spans="1:18" ht="15.5">
@@ -2377,37 +2379,37 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -2421,37 +2423,37 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="M35" s="8" t="s">
-        <v>108</v>
+      <c r="M35" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -2465,37 +2467,37 @@
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J36" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>121</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -2509,41 +2511,43 @@
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M37" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
     </row>
     <row r="38" spans="1:18" ht="15.5">
       <c r="A38" s="3" t="s">
@@ -2553,41 +2557,41 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M38" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="5"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
     </row>
@@ -2599,41 +2603,41 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L39" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="M39" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="5"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
     </row>
@@ -2645,10 +2649,10 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>52</v>
@@ -2660,22 +2664,22 @@
         <v>76</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J40" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -2691,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>132</v>
@@ -2706,22 +2710,22 @@
         <v>77</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J41" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -2737,10 +2741,10 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>54</v>
@@ -2752,22 +2756,22 @@
         <v>78</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -2776,48 +2780,22 @@
       <c r="R42" s="12"/>
     </row>
     <row r="43" spans="1:18" ht="15.5">
-      <c r="A43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="5"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
     </row>
@@ -2841,26 +2819,6 @@
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
     </row>
-    <row r="45" spans="1:18" ht="15.5">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test data/TC03_EditProfile.xlsx
+++ b/Test data/TC03_EditProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C0CA4C-F816-44DD-AA26-F96B2182BA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F452CBA3-59A1-4C4D-B208-CEC3DB25F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="137">
   <si>
     <t>TDID</t>
   </si>
@@ -428,6 +428,12 @@
   </si>
   <si>
     <t>05092012</t>
+  </si>
+  <si>
+    <t>Revised</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -546,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,6 +592,7 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -910,11 +917,13 @@
     <col min="10" max="10" width="47.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="153.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="146.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.6328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24.54296875" style="1" customWidth="1"/>
-    <col min="17" max="19" width="9" style="1"/>
+    <col min="16" max="16" width="12.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.26953125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="1"/>
     <col min="20" max="20" width="15.453125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
@@ -966,10 +975,14 @@
         <v>2</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
     </row>
@@ -1014,6 +1027,8 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="5"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.5">
       <c r="A3" s="3" t="s">
@@ -1058,6 +1073,8 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="5"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.5">
       <c r="A4" s="3" t="s">
@@ -1102,6 +1119,8 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="5"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.5">
       <c r="A5" s="3" t="s">
@@ -1146,6 +1165,8 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
       <c r="P5" s="5"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="15.5">
       <c r="A6" s="3" t="s">
@@ -1190,6 +1211,8 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
       <c r="P6" s="5"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
     </row>
     <row r="7" spans="1:20" ht="15.5">
       <c r="A7" s="3" t="s">
@@ -1234,6 +1257,8 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
       <c r="P7" s="5"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
     </row>
     <row r="8" spans="1:20" ht="15.5">
       <c r="A8" s="3" t="s">
@@ -1278,6 +1303,8 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="5"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
     </row>
     <row r="9" spans="1:20" ht="15.5">
       <c r="A9" s="3" t="s">
@@ -1320,6 +1347,8 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="5"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
     </row>
     <row r="10" spans="1:20" ht="15.5">
       <c r="A10" s="3" t="s">
@@ -1364,6 +1393,8 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="5"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
     </row>
     <row r="11" spans="1:20" ht="15.5">
       <c r="A11" s="3" t="s">
@@ -1408,6 +1439,8 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="5"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
     </row>
     <row r="12" spans="1:20" ht="15.5">
       <c r="A12" s="3" t="s">
@@ -1452,6 +1485,8 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="5"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
     </row>
     <row r="13" spans="1:20" ht="15.5">
       <c r="A13" s="3" t="s">
@@ -1496,6 +1531,8 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="5"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
     </row>
     <row r="14" spans="1:20" ht="15.5">
       <c r="A14" s="3" t="s">
@@ -1540,6 +1577,8 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
       <c r="P14" s="5"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
     </row>
     <row r="15" spans="1:20" ht="15.5">
       <c r="A15" s="3" t="s">
@@ -1582,6 +1621,8 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
       <c r="P15" s="5"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
     </row>
     <row r="16" spans="1:20" ht="15.5">
       <c r="A16" s="3" t="s">
@@ -1626,8 +1667,10 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="5"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.5">
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.5">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1670,8 +1713,10 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
       <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.5">
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18" spans="1:18" ht="15.5">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1714,8 +1759,10 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="5"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.5">
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+    </row>
+    <row r="19" spans="1:18" ht="15.5">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1758,8 +1805,10 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.5">
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20" spans="1:18" ht="15.5">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1802,8 +1851,10 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.5">
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+    </row>
+    <row r="21" spans="1:18" ht="15.5">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -1844,8 +1895,10 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.5">
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22" spans="1:18" ht="15.5">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
@@ -1888,8 +1941,10 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="5"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.5">
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+    </row>
+    <row r="23" spans="1:18" ht="15.5">
       <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
@@ -1932,8 +1987,10 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="5"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.5">
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" ht="15.5">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1976,8 +2033,10 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="5"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.5">
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+    </row>
+    <row r="25" spans="1:18" ht="15.5">
       <c r="A25" s="3" t="s">
         <v>19</v>
       </c>
@@ -2020,8 +2079,10 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.5">
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26" spans="1:18" ht="15.5">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
@@ -2064,8 +2125,10 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="5"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.5">
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+    </row>
+    <row r="27" spans="1:18" ht="15.5">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2108,8 +2171,10 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.5">
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28" spans="1:18" ht="15.5">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -2152,8 +2217,10 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="5"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.5">
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+    </row>
+    <row r="29" spans="1:18" ht="15.5">
       <c r="A29" s="3" t="s">
         <v>23</v>
       </c>
@@ -2194,8 +2261,10 @@
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.5">
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+    </row>
+    <row r="30" spans="1:18" ht="15.5">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -2238,8 +2307,10 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="5"/>
-    </row>
-    <row r="31" spans="1:16" ht="15.5">
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+    </row>
+    <row r="31" spans="1:18" ht="15.5">
       <c r="A31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2282,8 +2353,10 @@
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="5"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.5">
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.5">
       <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2326,6 +2399,8 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="8"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
     </row>
     <row r="33" spans="1:18" ht="15.5">
       <c r="A33" s="3" t="s">
@@ -2370,6 +2445,8 @@
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="8"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
     </row>
     <row r="34" spans="1:18" ht="15.5">
       <c r="A34" s="3" t="s">
@@ -2414,6 +2491,8 @@
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="8"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
     </row>
     <row r="35" spans="1:18" ht="15.5">
       <c r="A35" s="3" t="s">
@@ -2458,6 +2537,8 @@
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="8"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
     </row>
     <row r="36" spans="1:18" ht="15.5">
       <c r="A36" s="3" t="s">
@@ -2502,6 +2583,8 @@
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="8"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
     </row>
     <row r="37" spans="1:18" ht="15.5">
       <c r="A37" s="3" t="s">
@@ -2546,8 +2629,8 @@
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="5"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
     </row>
     <row r="38" spans="1:18" ht="15.5">
       <c r="A38" s="3" t="s">
@@ -2592,8 +2675,8 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" ht="15.5">
       <c r="A39" s="3" t="s">
@@ -2638,8 +2721,8 @@
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
       <c r="P39" s="5"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
     </row>
     <row r="40" spans="1:18" ht="15.5">
       <c r="A40" s="3" t="s">
@@ -2684,8 +2767,8 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
     </row>
     <row r="41" spans="1:18" ht="15.5">
       <c r="A41" s="3" t="s">
@@ -2730,8 +2813,8 @@
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
     </row>
     <row r="42" spans="1:18" ht="15.5">
       <c r="A42" s="3" t="s">
@@ -2776,8 +2859,8 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="5"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
     </row>
     <row r="43" spans="1:18" ht="15.5">
       <c r="A43" s="12"/>

--- a/Test data/TC03_EditProfile.xlsx
+++ b/Test data/TC03_EditProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Project\Test data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F452CBA3-59A1-4C4D-B208-CEC3DB25F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46B993B-BFC6-4A7C-8A27-84BE6AAF5593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="136">
   <si>
     <t>TDID</t>
   </si>
@@ -349,9 +349,6 @@
     <t>อีเมลต้องมีจำนวนตัวอักษร 12-40 ตัวอักษรเท่านั้น</t>
   </si>
   <si>
-    <t>1709800373243</t>
-  </si>
-  <si>
     <t>1549900523702</t>
   </si>
   <si>
@@ -421,19 +418,19 @@
     <t>Actual result</t>
   </si>
   <si>
-    <t>06092011</t>
-  </si>
-  <si>
-    <t>06092010</t>
-  </si>
-  <si>
-    <t>05092012</t>
-  </si>
-  <si>
     <t>Revised</t>
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>09092010</t>
+  </si>
+  <si>
+    <t>08092012</t>
+  </si>
+  <si>
+    <t>09092011</t>
   </si>
 </sst>
 </file>
@@ -900,7 +897,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
@@ -936,10 +933,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
@@ -966,19 +963,19 @@
         <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>43</v>
@@ -988,7 +985,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.5">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>4</v>
@@ -1010,16 +1007,16 @@
         <v>89</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>44</v>
@@ -1032,7 +1029,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.5">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -1056,16 +1053,16 @@
         <v>89</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>55</v>
@@ -1078,7 +1075,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.5">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -1102,16 +1099,16 @@
         <v>89</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M4" s="8" t="s">
         <v>55</v>
@@ -1124,7 +1121,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.5">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -1148,16 +1145,16 @@
         <v>89</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>55</v>
@@ -1170,7 +1167,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.5">
       <c r="A6" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1194,16 +1191,16 @@
         <v>89</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>55</v>
@@ -1216,7 +1213,7 @@
     </row>
     <row r="7" spans="1:20" ht="15.5">
       <c r="A7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
@@ -1240,16 +1237,16 @@
         <v>89</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M7" s="8" t="s">
         <v>56</v>
@@ -1262,7 +1259,7 @@
     </row>
     <row r="8" spans="1:20" ht="15.5">
       <c r="A8" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
@@ -1286,16 +1283,16 @@
         <v>89</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>56</v>
@@ -1308,7 +1305,7 @@
     </row>
     <row r="9" spans="1:20" ht="15.5">
       <c r="A9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -1330,16 +1327,16 @@
         <v>89</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J9" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>67</v>
@@ -1352,7 +1349,7 @@
     </row>
     <row r="10" spans="1:20" ht="15.5">
       <c r="A10" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
@@ -1376,16 +1373,16 @@
         <v>89</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>68</v>
@@ -1422,16 +1419,16 @@
         <v>89</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>68</v>
@@ -1468,16 +1465,16 @@
         <v>89</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>68</v>
@@ -1514,16 +1511,16 @@
         <v>89</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>69</v>
@@ -1560,16 +1557,16 @@
         <v>89</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>69</v>
@@ -1604,16 +1601,16 @@
         <v>89</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>79</v>
@@ -1650,16 +1647,16 @@
         <v>89</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J16" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>80</v>
@@ -1696,16 +1693,16 @@
         <v>89</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M17" s="8" t="s">
         <v>80</v>
@@ -1742,16 +1739,16 @@
         <v>89</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>80</v>
@@ -1788,16 +1785,16 @@
         <v>89</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J19" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>81</v>
@@ -1834,16 +1831,16 @@
         <v>89</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>81</v>
@@ -1878,16 +1875,16 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>90</v>
@@ -1924,16 +1921,16 @@
         <v>82</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>91</v>
@@ -1970,16 +1967,16 @@
         <v>83</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>91</v>
@@ -2016,16 +2013,16 @@
         <v>84</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>91</v>
@@ -2062,16 +2059,16 @@
         <v>85</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J25" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>92</v>
@@ -2108,16 +2105,16 @@
         <v>86</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>92</v>
@@ -2154,16 +2151,16 @@
         <v>87</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J27" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>93</v>
@@ -2200,16 +2197,16 @@
         <v>88</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>93</v>
@@ -2246,14 +2243,14 @@
         <v>89</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M29" s="8" t="s">
         <v>105</v>
@@ -2290,16 +2287,16 @@
         <v>89</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J30" s="9" t="s">
         <v>94</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M30" s="8" t="s">
         <v>106</v>
@@ -2336,16 +2333,16 @@
         <v>89</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>95</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M31" s="8" t="s">
         <v>106</v>
@@ -2382,16 +2379,16 @@
         <v>89</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>96</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M32" s="8" t="s">
         <v>106</v>
@@ -2428,16 +2425,16 @@
         <v>89</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>97</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M33" s="8" t="s">
         <v>106</v>
@@ -2474,16 +2471,16 @@
         <v>89</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J34" s="11" t="s">
         <v>100</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M34" s="8" t="s">
         <v>106</v>
@@ -2520,16 +2517,16 @@
         <v>89</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J35" s="11" t="s">
         <v>98</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>107</v>
@@ -2566,16 +2563,16 @@
         <v>89</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>99</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>107</v>
@@ -2612,19 +2609,19 @@
         <v>89</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J37" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>126</v>
       </c>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -2658,19 +2655,19 @@
         <v>89</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J38" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L38" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2704,19 +2701,19 @@
         <v>89</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J39" s="13" t="s">
         <v>101</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -2750,19 +2747,19 @@
         <v>89</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J40" s="13" t="s">
         <v>102</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -2781,7 +2778,7 @@
         <v>108</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>53</v>
@@ -2796,19 +2793,19 @@
         <v>89</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J41" s="13" t="s">
         <v>103</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M41" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -2842,19 +2839,19 @@
         <v>89</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>104</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="M42" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>122</v>
       </c>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
